--- a/output/0/tRNA-Thr-AGT-1-2.xlsx
+++ b/output/0/tRNA-Thr-AGT-1-2.xlsx
@@ -12,171 +12,273 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="89">
   <si>
     <t>chr17</t>
   </si>
   <si>
-    <t>8129557</t>
-  </si>
-  <si>
-    <t>8129580</t>
+    <t>8129933</t>
+  </si>
+  <si>
+    <t>8129956</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>8129953</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>CGGCAGGATTCGAACCTGCG</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>95% (67)</t>
+  </si>
+  <si>
+    <t>84% (64)</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>8129934</t>
+  </si>
+  <si>
+    <t>8129957</t>
+  </si>
+  <si>
+    <t>8129954</t>
+  </si>
+  <si>
+    <t>GGCAGGATTCGAACCTGCGC</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>50% (50)</t>
+  </si>
+  <si>
+    <t>12% (24)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>8129935</t>
+  </si>
+  <si>
+    <t>8129958</t>
+  </si>
+  <si>
+    <t>8129955</t>
+  </si>
+  <si>
+    <t>GCAGGATTCGAACCTGCGCG</t>
+  </si>
+  <si>
+    <t>94% (66)</t>
+  </si>
+  <si>
+    <t>61% (50)</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>8129947</t>
+  </si>
+  <si>
+    <t>8129970</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>8129560</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>ATCCTGGGTTCGAATCCCAG</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>98% (71)</t>
-  </si>
-  <si>
-    <t>91% (71)</t>
-  </si>
-  <si>
-    <t>80</t>
+    <t>8129950</t>
+  </si>
+  <si>
+    <t>CCATTGGGGTCTCCCCGCGC</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>78% (59)</t>
+  </si>
+  <si>
+    <t>87% (66)</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>8129961</t>
+  </si>
+  <si>
+    <t>8129984</t>
+  </si>
+  <si>
+    <t>8129964</t>
+  </si>
+  <si>
+    <t>GATGGACTAGAAATCCATTG</t>
+  </si>
+  <si>
+    <t>100% (75)</t>
+  </si>
+  <si>
+    <t>63% (51)</t>
+  </si>
+  <si>
+    <t>61</t>
   </si>
   <si>
     <t>65</t>
   </si>
   <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>8129572</t>
-  </si>
-  <si>
-    <t>8129595</t>
-  </si>
-  <si>
-    <t>8129575</t>
-  </si>
-  <si>
-    <t>TCTAGTAAACAGGAGATCCT</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>86% (62)</t>
-  </si>
-  <si>
-    <t>65% (52)</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>8129573</t>
-  </si>
-  <si>
-    <t>8129596</t>
-  </si>
-  <si>
-    <t>8129576</t>
-  </si>
-  <si>
-    <t>GTCTAGTAAACAGGAGATCC</t>
+    <t>8129962</t>
+  </si>
+  <si>
+    <t>8129985</t>
+  </si>
+  <si>
+    <t>8129965</t>
+  </si>
+  <si>
+    <t>CGATGGACTAGAAATCCATT</t>
+  </si>
+  <si>
+    <t>43% (48)</t>
+  </si>
+  <si>
+    <t>3% (12)</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>8129963</t>
+  </si>
+  <si>
+    <t>8129986</t>
+  </si>
+  <si>
+    <t>8129966</t>
+  </si>
+  <si>
+    <t>GCGATGGACTAGAAATCCAT</t>
   </si>
   <si>
     <t>TGG</t>
   </si>
   <si>
-    <t>23% (40)</t>
-  </si>
-  <si>
-    <t>4% (14)</t>
-  </si>
-  <si>
-    <t>8129599</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>GGATCTCCTGTTTACTAGAC</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>46% (49)</t>
-  </si>
-  <si>
-    <t>35% (38)</t>
-  </si>
-  <si>
-    <t>25</t>
+    <t>53% (51)</t>
+  </si>
+  <si>
+    <t>76% (58)</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>8129976</t>
+  </si>
+  <si>
+    <t>8129999</t>
+  </si>
+  <si>
+    <t>8129996</t>
+  </si>
+  <si>
+    <t>AGTCCATCGCCTTAACCACT</t>
+  </si>
+  <si>
+    <t>72% (57)</t>
+  </si>
+  <si>
+    <t>13% (25)</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>8129979</t>
+  </si>
+  <si>
+    <t>8130002</t>
+  </si>
+  <si>
+    <t>8129982</t>
+  </si>
+  <si>
+    <t>TGGCCGAGTGGTTAAGGCGA</t>
+  </si>
+  <si>
+    <t>59% (53)</t>
+  </si>
+  <si>
+    <t>71% (55)</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
   <si>
     <t>63</t>
   </si>
   <si>
-    <t>8129582</t>
-  </si>
-  <si>
-    <t>8129605</t>
-  </si>
-  <si>
-    <t>8129585</t>
-  </si>
-  <si>
-    <t>AAAGCGCCTGTCTAGTAAAC</t>
-  </si>
-  <si>
-    <t>30% (43)</t>
-  </si>
-  <si>
-    <t>63% (51)</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>8129622</t>
-  </si>
-  <si>
-    <t>8129619</t>
-  </si>
-  <si>
-    <t>CGCTTTAACCAACTAAGCCA</t>
-  </si>
-  <si>
-    <t>78% (59)</t>
-  </si>
-  <si>
-    <t>5% (17)</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>75</t>
+    <t>8130008</t>
+  </si>
+  <si>
+    <t>8129988</t>
+  </si>
+  <si>
+    <t>TAGTCGTGGCCGAGTGGTTA</t>
+  </si>
+  <si>
+    <t>27% (42)</t>
+  </si>
+  <si>
+    <t>69% (54)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>73</t>
   </si>
 </sst>
 </file>
@@ -221,7 +323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -244,10 +346,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -303,10 +405,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -362,10 +464,10 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -380,22 +482,22 @@
         <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
         <v>30</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>31</v>
       </c>
-      <c r="P3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -409,22 +511,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -436,25 +538,25 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P4" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="Q4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
@@ -468,22 +570,22 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -495,25 +597,25 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R5" t="s">
         <v>15</v>
@@ -527,22 +629,22 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -554,30 +656,266 @@
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
         <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R6" t="s">
         <v>15</v>
       </c>
       <c r="S6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" t="s">
         <v>3</v>
       </c>
     </row>
